--- a/Benign vs Pathogenic Comparison/Statistics_Input.xlsx
+++ b/Benign vs Pathogenic Comparison/Statistics_Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/040e7ab5c4e56160/Documents/GitHub/Annabel-BSc-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/040e7ab5c4e56160/Documents/GitHub/Annabel-BSc-Project/Benign vs Pathogenic Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{EE0D45CE-419E-40CF-B4F8-04A46B4F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE2BB8B-C61A-4A60-956A-8C6C46AE4F51}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{EE0D45CE-419E-40CF-B4F8-04A46B4F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33353DA7-52DB-4206-BDC0-8DBBFD0BF7FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{64AEA9C6-B573-41E7-96F7-999869141028}"/>
+    <workbookView minimized="1" xWindow="2640" yWindow="0" windowWidth="15720" windowHeight="10920" xr2:uid="{64AEA9C6-B573-41E7-96F7-999869141028}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B6AE74-3852-49FA-BC82-2ADF7E2AC097}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G74"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,7 +694,7 @@
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -789,7 +789,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -813,7 +813,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -837,7 +837,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -861,7 +861,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -885,7 +885,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -909,7 +909,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -933,7 +933,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -957,7 +957,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -981,7 +981,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1052,8 +1052,12 @@
       <c r="G15">
         <v>727</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15">
+        <f>COUNTIF(E:E,"Pathogenic")</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1075,6 +1079,10 @@
       </c>
       <c r="G16">
         <v>727</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIF(E:E, "Benign")</f>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7">
